--- a/Specification file/產險/華南產險API欄位輸出文件_v3.xlsx
+++ b/Specification file/產險/華南產險API欄位輸出文件_v3.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59118B0-DF95-8E44-A6B0-81DBEB713035}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="2235" windowWidth="38400" windowHeight="23535" activeTab="7"/>
+    <workbookView xWindow="28800" yWindow="2240" windowWidth="38400" windowHeight="23540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="承保紀錄" sheetId="3" r:id="rId1"/>
@@ -83,9 +84,6 @@
   </si>
   <si>
     <t>claim_records</t>
-  </si>
-  <si>
-    <t>claim_num</t>
   </si>
   <si>
     <t>理賠號碼</t>
@@ -1797,11 +1795,15 @@
     <t>線上報案紀錄的資料由以下欄位組成</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>claim_no</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="19">
     <font>
       <sz val="11"/>
@@ -2127,12 +2129,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2145,6 +2141,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2176,7 +2178,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -2465,21 +2467,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="21.796875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.796875" style="4" customWidth="1"/>
     <col min="5" max="5" width="61" style="4" customWidth="1"/>
-    <col min="6" max="6" width="34.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="31.5" customHeight="1">
@@ -2496,13 +2498,13 @@
         <v>10</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="31.5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="30">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -2516,15 +2518,15 @@
         <v>13</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="102" customHeight="1">
       <c r="A3" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>14</v>
@@ -2536,10 +2538,10 @@
         <v>15</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" s="47"/>
       <c r="H3" s="48"/>
@@ -2566,13 +2568,13 @@
         <v>12</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="49"/>
       <c r="H4" s="48"/>
@@ -2599,10 +2601,10 @@
         <v>12</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="49"/>
@@ -2630,13 +2632,13 @@
         <v>12</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G6" s="49"/>
       <c r="H6" s="48"/>
@@ -2663,13 +2665,13 @@
         <v>12</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="135.75" customHeight="1">
@@ -2683,18 +2685,18 @@
         <v>12</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="33.75" customHeight="1">
       <c r="A9" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>14</v>
@@ -2703,14 +2705,14 @@
         <v>12</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -2721,21 +2723,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="4"/>
-    <col min="3" max="3" width="10.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.19921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" style="4"/>
+    <col min="3" max="3" width="10.3984375" style="4" customWidth="1"/>
     <col min="4" max="4" width="17" style="4" customWidth="1"/>
-    <col min="5" max="5" width="58.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="42.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="58.3984375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="42.59765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1">
@@ -2752,13 +2754,13 @@
         <v>10</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="31.5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30">
       <c r="A2" s="13" t="s">
         <v>17</v>
       </c>
@@ -2769,18 +2771,18 @@
         <v>12</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>114</v>
-      </c>
       <c r="F2" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="94.5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="90">
       <c r="A3" s="13" t="s">
-        <v>18</v>
+        <v>353</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>14</v>
@@ -2789,18 +2791,18 @@
         <v>12</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="94.5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="90">
       <c r="A4" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>14</v>
@@ -2811,16 +2813,16 @@
       <c r="D4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="56" t="s">
-        <v>348</v>
+      <c r="E4" s="54" t="s">
+        <v>347</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="63">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60">
       <c r="A5" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>14</v>
@@ -2829,18 +2831,18 @@
         <v>12</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="102" customHeight="1">
       <c r="A6" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>16</v>
@@ -2849,18 +2851,18 @@
         <v>12</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="387.75" customHeight="1">
       <c r="A7" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>14</v>
@@ -2869,13 +2871,13 @@
         <v>12</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2889,22 +2891,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="12.796875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.59765625" style="4" customWidth="1"/>
     <col min="3" max="3" width="10" style="4" customWidth="1"/>
     <col min="4" max="4" width="23" style="4" customWidth="1"/>
-    <col min="5" max="5" width="46.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="46.796875" style="4" customWidth="1"/>
     <col min="6" max="6" width="15" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="19.796875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="51.75" customHeight="1">
@@ -2921,18 +2923,18 @@
         <v>10</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F1" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="34" t="s">
         <v>32</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="53.25" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>16</v>
@@ -2941,28 +2943,28 @@
         <v>12</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="39.75" customHeight="1">
       <c r="A3" s="46" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="12"/>
@@ -2970,16 +2972,16 @@
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="39.75" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="12"/>
@@ -2990,16 +2992,16 @@
         <v>6</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
@@ -3015,22 +3017,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="4"/>
-    <col min="3" max="3" width="10.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.3984375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" style="4"/>
+    <col min="3" max="3" width="10.59765625" style="4" customWidth="1"/>
     <col min="4" max="4" width="25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="45.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="45.19921875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.59765625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="19.3984375" style="4" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="27" customWidth="1"/>
   </cols>
@@ -3049,86 +3051,86 @@
         <v>10</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F1" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="34" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="2" spans="1:9" ht="66" customHeight="1">
-      <c r="A2" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="52" t="s">
+      <c r="A2" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="53" t="s">
-        <v>159</v>
-      </c>
-      <c r="E2" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="G2" s="55"/>
+      <c r="D2" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="53"/>
       <c r="H2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="100.5" customHeight="1">
       <c r="A3" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="25"/>
       <c r="H3" s="44" t="s">
-        <v>333</v>
-      </c>
-      <c r="I3" s="50" t="s">
-        <v>335</v>
+        <v>332</v>
+      </c>
+      <c r="I3" s="55" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="52.5" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F4" s="24"/>
       <c r="G4" s="25"/>
       <c r="H4" s="45" t="s">
-        <v>334</v>
-      </c>
-      <c r="I4" s="51"/>
+        <v>333</v>
+      </c>
+      <c r="I4" s="56"/>
     </row>
     <row r="5" spans="1:9">
       <c r="E5" s="23"/>
@@ -3153,19 +3155,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="2" width="13.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="39.140625" style="4" customWidth="1"/>
+    <col min="1" max="2" width="13.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.19921875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="39.19921875" style="4" customWidth="1"/>
     <col min="6" max="6" width="49" style="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3183,30 +3185,30 @@
         <v>10</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="54" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>46</v>
-      </c>
       <c r="F2" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="52.5" customHeight="1">
@@ -3223,15 +3225,15 @@
         <v>15</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="131.25" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>16</v>
@@ -3240,64 +3242,64 @@
         <v>12</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="63">
+    </row>
+    <row r="5" spans="1:6" ht="60">
       <c r="A5" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="F5" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="F5" s="22" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="113.1" customHeight="1">
+    </row>
+    <row r="6" spans="1:6" ht="113" customHeight="1">
       <c r="A6" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="50.25" customHeight="1">
       <c r="A7" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F7" s="28"/>
     </row>
@@ -3312,7 +3314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -3322,13 +3324,13 @@
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" customWidth="1"/>
     <col min="4" max="4" width="19" style="32" customWidth="1"/>
-    <col min="5" max="5" width="45.5703125" customWidth="1"/>
+    <col min="5" max="5" width="45.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" customHeight="1">
@@ -3345,92 +3347,92 @@
         <v>10</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="63">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="60">
       <c r="A2" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C2" s="41" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15">
       <c r="A3" s="46" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3" s="41" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="69.75" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C4" s="41" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="5" customFormat="1" ht="78.75">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="5" customFormat="1" ht="75">
       <c r="A5" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="5" customFormat="1">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="5" customFormat="1" ht="15">
       <c r="A6" s="46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3441,553 +3443,553 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.19921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.796875" style="4" customWidth="1"/>
     <col min="4" max="4" width="18" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="32.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24.3984375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.796875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="32.3984375" style="4" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>319</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F20" s="3"/>
       <c r="H20" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F21" s="3"/>
       <c r="H21" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F22" s="3"/>
       <c r="H22" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F23" s="3"/>
       <c r="H23" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F24" s="3"/>
       <c r="H24" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F25" s="3"/>
       <c r="H25" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F26" s="3"/>
       <c r="H26" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F27" s="3"/>
       <c r="H27" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3995,18 +3997,18 @@
         <v>21</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="F28" s="7"/>
       <c r="H28" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -4014,18 +4016,18 @@
         <v>21</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F29" s="7"/>
       <c r="H29" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -4033,18 +4035,18 @@
         <v>21</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F30" s="7"/>
       <c r="H30" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -4670,87 +4672,87 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="15" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.796875" style="4" customWidth="1"/>
     <col min="3" max="3" width="17" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="50.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="35.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.59765625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="50.3984375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="21.796875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="35.19921875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A3" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="37" t="s">
         <v>163</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>164</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="37" t="s">
         <v>165</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>166</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
@@ -4758,1102 +4760,1102 @@
         <v>3081001</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" s="38"/>
       <c r="D4" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="37" t="s">
         <v>168</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>169</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A5" s="37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A6" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="38"/>
       <c r="D6" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A7" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A8" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A9" s="37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A10" s="37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="38"/>
       <c r="D10" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A11" s="37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A12" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C12" s="38"/>
       <c r="D12" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A13" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C13" s="38"/>
       <c r="D13" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A14" s="37" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A15" s="37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A17" s="37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A18" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A19" s="37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A20" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A21" s="37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C21" s="38"/>
       <c r="D21" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A22" s="37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C22" s="38"/>
       <c r="D22" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A23" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C23" s="38"/>
       <c r="D23" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A24" s="37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C24" s="38"/>
       <c r="D24" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A25" s="37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C25" s="38"/>
       <c r="D25" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A26" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="B26" s="37" t="s">
         <v>212</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>213</v>
       </c>
       <c r="C26" s="38"/>
       <c r="D26" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="E26" s="37" t="s">
         <v>214</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>215</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A27" s="37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E27" s="37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A28" s="37" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C28" s="38"/>
       <c r="D28" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="E28" s="37" t="s">
         <v>219</v>
-      </c>
-      <c r="E28" s="37" t="s">
-        <v>220</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A29" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C29" s="38"/>
       <c r="D29" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A30" s="37" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C30" s="38"/>
       <c r="D30" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
     <row r="31" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A31" s="37" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C31" s="38"/>
       <c r="D31" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E31" s="37" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A32" s="37" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C32" s="38"/>
       <c r="D32" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A33" s="37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C33" s="38"/>
       <c r="D33" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E33" s="37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A34" s="37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E34" s="37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A35" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="38"/>
       <c r="D35" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E35" s="37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
     <row r="36" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A36" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C36" s="38"/>
       <c r="D36" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E36" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
     <row r="37" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A37" s="37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C37" s="38"/>
       <c r="D37" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
     <row r="38" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A38" s="37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C38" s="38"/>
       <c r="D38" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E38" s="37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
     <row r="39" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A39" s="37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C39" s="38"/>
       <c r="D39" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
     <row r="40" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A40" s="37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C40" s="38"/>
       <c r="D40" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E40" s="37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
     <row r="41" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A41" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C41" s="38"/>
       <c r="D41" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E41" s="37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
     </row>
     <row r="42" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C42" s="38"/>
       <c r="D42" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E42" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
     <row r="43" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B43" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C43" s="38"/>
       <c r="D43" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E43" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
     <row r="44" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A44" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C44" s="38"/>
       <c r="D44" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E44" s="37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
     <row r="45" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A45" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C45" s="38"/>
       <c r="D45" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E45" s="37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
     </row>
     <row r="46" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A46" s="37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B46" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C46" s="38"/>
       <c r="D46" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E46" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
     <row r="47" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A47" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B47" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C47" s="38"/>
       <c r="D47" s="37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E47" s="37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
     </row>
     <row r="48" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A48" s="37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B48" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C48" s="38"/>
       <c r="D48" s="37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E48" s="37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
     </row>
     <row r="49" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A49" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B49" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C49" s="38"/>
       <c r="D49" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E49" s="37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
     </row>
     <row r="50" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A50" s="37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C50" s="38"/>
       <c r="D50" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E50" s="37" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
     <row r="51" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A51" s="37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B51" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C51" s="38"/>
       <c r="D51" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E51" s="37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
     </row>
     <row r="52" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A52" s="37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B52" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C52" s="38"/>
       <c r="D52" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E52" s="37" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
     <row r="53" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A53" s="37" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B53" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C53" s="38"/>
       <c r="D53" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E53" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
     </row>
     <row r="54" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A54" s="37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B54" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C54" s="38"/>
       <c r="D54" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E54" s="37" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
     </row>
     <row r="55" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A55" s="37" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B55" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C55" s="38"/>
       <c r="D55" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E55" s="37" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
     </row>
     <row r="56" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A56" s="37" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C56" s="38"/>
       <c r="D56" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E56" s="37" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
     </row>
     <row r="57" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A57" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B57" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C57" s="38"/>
       <c r="D57" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E57" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
     </row>
     <row r="58" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A58" s="37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B58" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C58" s="38"/>
       <c r="D58" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E58" s="37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
     </row>
     <row r="59" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A59" s="37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C59" s="38"/>
       <c r="D59" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E59" s="37" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
     </row>
     <row r="60" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A60" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C60" s="38"/>
       <c r="D60" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E60" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
     </row>
     <row r="61" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A61" s="37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B61" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C61" s="38"/>
       <c r="D61" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E61" s="37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
     </row>
     <row r="62" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A62" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B62" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C62" s="38"/>
       <c r="D62" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E62" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
     </row>
     <row r="63" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A63" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="B63" s="37" t="s">
         <v>288</v>
-      </c>
-      <c r="B63" s="37" t="s">
-        <v>289</v>
       </c>
       <c r="C63" s="38"/>
       <c r="D63" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E63" s="37" t="s">
         <v>290</v>
-      </c>
-      <c r="E63" s="37" t="s">
-        <v>291</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
     </row>
     <row r="64" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A64" s="37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B64" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C64" s="38"/>
       <c r="D64" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E64" s="37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
     </row>
     <row r="65" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A65" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B65" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C65" s="38"/>
       <c r="D65" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E65" s="37" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
     </row>
     <row r="66" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A66" s="37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C66" s="38"/>
       <c r="D66" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E66" s="37" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
     </row>
     <row r="67" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A67" s="37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C67" s="38"/>
       <c r="D67" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E67" s="37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
     </row>
     <row r="68" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A68" s="37" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B68" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C68" s="38"/>
       <c r="D68" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E68" s="37" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
@@ -5863,14 +5865,14 @@
         <v>8051001</v>
       </c>
       <c r="B69" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C69" s="38"/>
       <c r="D69" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="E69" s="37" t="s">
         <v>302</v>
-      </c>
-      <c r="E69" s="37" t="s">
-        <v>303</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
@@ -5880,14 +5882,14 @@
         <v>8061001</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C70" s="38"/>
       <c r="D70" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="E70" s="37" t="s">
         <v>304</v>
-      </c>
-      <c r="E70" s="37" t="s">
-        <v>305</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
@@ -5897,14 +5899,14 @@
         <v>8051002</v>
       </c>
       <c r="B71" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C71" s="38"/>
       <c r="D71" s="37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E71" s="37" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>

--- a/Specification file/產險/華南產險API欄位輸出文件_v3.xlsx
+++ b/Specification file/產險/華南產險API欄位輸出文件_v3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59118B0-DF95-8E44-A6B0-81DBEB713035}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33CE7AF-33D9-564D-AA5B-2A6C1C333D32}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="2240" windowWidth="38400" windowHeight="23540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="2240" windowWidth="38400" windowHeight="23540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="承保紀錄" sheetId="3" r:id="rId1"/>
@@ -1996,7 +1996,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2147,6 +2147,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2726,7 +2729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -2963,7 +2966,7 @@
       <c r="C3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="57" t="s">
         <v>348</v>
       </c>
       <c r="E3" s="15"/>
@@ -3159,7 +3162,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -3320,7 +3323,7 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>

--- a/Specification file/產險/華南產險API欄位輸出文件_v3.xlsx
+++ b/Specification file/產險/華南產險API欄位輸出文件_v3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33CE7AF-33D9-564D-AA5B-2A6C1C333D32}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22EB645-0F1C-3644-B1E9-EF676D8A5A46}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="2240" windowWidth="38400" windowHeight="23540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="2240" windowWidth="38400" windowHeight="23540" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="承保紀錄" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="355">
   <si>
     <t>insurance_records</t>
   </si>
@@ -1797,6 +1797,10 @@
   </si>
   <si>
     <t>claim_no</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>車損險、車責險、強制險</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1996,7 +2000,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2142,14 +2146,17 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2473,8 +2480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2966,7 +2973,7 @@
       <c r="C3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="55" t="s">
         <v>348</v>
       </c>
       <c r="E3" s="15"/>
@@ -3108,7 +3115,7 @@
       <c r="H3" s="44" t="s">
         <v>332</v>
       </c>
-      <c r="I3" s="55" t="s">
+      <c r="I3" s="56" t="s">
         <v>334</v>
       </c>
     </row>
@@ -3133,7 +3140,7 @@
       <c r="H4" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="I4" s="56"/>
+      <c r="I4" s="57"/>
     </row>
     <row r="5" spans="1:9">
       <c r="E5" s="23"/>
@@ -3323,7 +3330,7 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -3449,8 +3456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -3930,7 +3937,7 @@
       <c r="D24" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="58" t="s">
         <v>345</v>
       </c>
       <c r="F24" s="3"/>
@@ -4099,7 +4106,9 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36"/>
-      <c r="B36"/>
+      <c r="B36" t="s">
+        <v>354</v>
+      </c>
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
@@ -4679,7 +4688,7 @@
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
